--- a/Luban/Config/Datas/Buff/Buff.xlsx
+++ b/Luban/Config/Datas/Buff/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20715" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,6 +123,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,68 +145,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +167,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -213,17 +213,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,28 +254,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,37 +280,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,13 +424,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,127 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +471,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,42 +541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,9 +563,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,142 +579,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Luban/Config/Datas/Buff/Buff.xlsx
+++ b/Luban/Config/Datas/Buff/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20715" windowHeight="9660"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,6 +115,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -123,6 +146,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,6 +167,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -137,8 +205,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,107 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,25 +280,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,157 +418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,16 +474,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -493,16 +493,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +509,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,22 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,16 +591,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,115 +609,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="2:9">
       <c r="B4" s="3">
-        <v>10110</v>
+        <v>100101</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="2:9">
       <c r="B5" s="3">
-        <v>10100</v>
+        <v>100102</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>

--- a/Luban/Config/Datas/Buff/Buff.xlsx
+++ b/Luban/Config/Datas/Buff/Buff.xlsx
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Luban/Config/Datas/Buff/Buff.xlsx
+++ b/Luban/Config/Datas/Buff/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>BuffAttach</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>##</t>
@@ -102,9 +105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,16 +118,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -132,35 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,40 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,29 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,8 +209,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,13 +283,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,169 +439,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,30 +474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,30 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +518,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -579,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,10 +594,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,121 +606,121 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1088,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1148,30 +1151,30 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="2:9">
@@ -1179,19 +1182,19 @@
         <v>100101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I4" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="2:9">
@@ -1199,13 +1202,13 @@
         <v>100102</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="3">
         <v>2000</v>

--- a/Luban/Config/Datas/Buff/Buff.xlsx
+++ b/Luban/Config/Datas/Buff/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="22365" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Param</t>
   </si>
   <si>
+    <t>EndEvent</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -60,7 +63,10 @@
     <t>BuffAttach</t>
   </si>
   <si>
-    <t>float</t>
+    <t>list,float</t>
+  </si>
+  <si>
+    <t>skill.BattleEvent</t>
   </si>
   <si>
     <t>##</t>
@@ -84,13 +90,28 @@
     <t>参数</t>
   </si>
   <si>
+    <t>技能替换</t>
+  </si>
+  <si>
+    <t>ModifySkill</t>
+  </si>
+  <si>
+    <t>Caster</t>
+  </si>
+  <si>
+    <t>100101,100102</t>
+  </si>
+  <si>
+    <t>NormalAttackHit</t>
+  </si>
+  <si>
     <t>加速</t>
   </si>
   <si>
     <t>MoveSpeed</t>
   </si>
   <si>
-    <t>Caster</t>
+    <t>None</t>
   </si>
   <si>
     <t>被动治疗</t>
@@ -724,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +756,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,18 +1118,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="4" max="4" width="11.8083333333333" customWidth="1"/>
     <col min="5" max="5" width="14.9166666666667" customWidth="1"/>
+    <col min="9" max="9" width="30.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,117 +1157,176 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="2:9">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="2:10">
       <c r="B4" s="3">
-        <v>100101</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3">
         <v>3000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="9:9">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="2:10">
+      <c r="B6" s="3">
+        <v>100101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I6" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="2:9">
-      <c r="B5" s="3">
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="2:10">
+      <c r="B7" s="3">
         <v>100102</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G7" s="3">
         <v>2000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H7" s="3">
         <v>-1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I7" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1"/>
-    <row r="7" s="3" customFormat="1"/>
-    <row r="8" s="3" customFormat="1"/>
-    <row r="9" s="3" customFormat="1"/>
-    <row r="10" s="3" customFormat="1"/>
-    <row r="11" s="3" customFormat="1"/>
-    <row r="12" s="3" customFormat="1"/>
-    <row r="13" s="3" customFormat="1"/>
-    <row r="14" s="3" customFormat="1"/>
-    <row r="15" s="3" customFormat="1"/>
-    <row r="16" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="9:9">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="9:9">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="9:9">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="9:9">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="9:9">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="9:9">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="9:9">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="9:9">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="9:9">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="9:9">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="9:9">
+      <c r="I18" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
